--- a/bots/crawl_ch/output/clothes_2022-07-28.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-28.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1174,148 +1174,148 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6077152004</t>
+          <t>6365813008</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Avela Kniestrumpf Pure Natural One Size</t>
+          <t>Naturaline Damen Sneaker Basic Duo Schwarz 39 - 41</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-kniestrumpf-pure-natural-one-size/p/6077152004</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-sneaker-basic-duo-schwarz-39-41/p/6365813008</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.63/1ST</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Avela Kniestrumpf Pure Natural One Size 3.25 Schweizer Franken</t>
+          <t>Naturaline Damen Sneaker Basic Duo Schwarz 39 - 41 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6365813010</t>
+          <t>6077152004</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Naturaline Damen Sneaker Basic Duo Weiss 39 - 41</t>
+          <t>Avela Kniestrumpf Pure Natural One Size</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-sneaker-basic-duo-weiss-39-41/p/6365813010</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-kniestrumpf-pure-natural-one-size/p/6077152004</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1.63/1ST</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Naturaline Damen Sneaker Basic Duo Weiss 39 - 41 7.95 Schweizer Franken</t>
+          <t>Avela Kniestrumpf Pure Natural One Size 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6365813008</t>
+          <t>6365813010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Naturaline Damen Sneaker Basic Duo Schwarz 39 - 41</t>
+          <t>Naturaline Damen Sneaker Basic Duo Weiss 39 - 41</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-sneaker-basic-duo-schwarz-39-41/p/6365813008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-sneaker-basic-duo-weiss-39-41/p/6365813010</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1344,12 +1344,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Naturaline Damen Sneaker Basic Duo Schwarz 39 - 41 7.95 Schweizer Franken</t>
+          <t>Naturaline Damen Sneaker Basic Duo Weiss 39 - 41 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:55</t>
+          <t>2022-07-28 20:59:35</t>
         </is>
       </c>
     </row>
